--- a/mbs-perturbation/bloated/svm/bloated-svm-linear-results.xlsx
+++ b/mbs-perturbation/bloated/svm/bloated-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08450704225352113</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C2" t="n">
         <v>0.9230769230769231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1548387096774193</v>
+        <v>0.2758620689655173</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9067177166724678</v>
+        <v>0.9129829446571529</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4615384615384616</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6153846153846155</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9951270449008006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E4" t="n">
-        <v>0.778657616892911</v>
+        <v>0.7254901960784313</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.6181818181818182</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4664335664335664</v>
+        <v>0.5562937062937063</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3663519579012536</v>
+        <v>0.3324324324324325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4012820512820513</v>
       </c>
       <c r="D7" t="n">
-        <v>0.249483261503635</v>
+        <v>0.283743842364532</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8293871889799492</v>
+        <v>0.7625897330422218</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/svm/bloated-svm-linear-results.xlsx
+++ b/mbs-perturbation/bloated/svm/bloated-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2758620689655173</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9129829446571529</v>
+        <v>0.9877694859038143</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7254901960784313</v>
+        <v>0.8389868837630031</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.6250565355042966</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5562937062937063</v>
+        <v>0.7554166666666667</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3324324324324325</v>
+        <v>0.436923076923077</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4012820512820513</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="D7" t="n">
-        <v>0.283743842364532</v>
+        <v>0.3238761238761239</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7625897330422218</v>
+        <v>0.8414459143675561</v>
       </c>
     </row>
   </sheetData>
